--- a/public/DataStudent/Student.xlsx
+++ b/public/DataStudent/Student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darmawan Jiddan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061C381B-C552-474B-8F76-6FF209289D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825647B3-A3E4-4CB6-A18C-E674EDA7DB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="5">
+  <si>
+    <t>ijaLER</t>
+  </si>
   <si>
     <t>pria</t>
   </si>
@@ -40,58 +42,10 @@
     <t>IKI</t>
   </si>
   <si>
-    <t>Jopan</t>
+    <t>2023-07-11T10:51:22.000000Z</t>
   </si>
   <si>
-    <t>Adi 1</t>
-  </si>
-  <si>
-    <t>Adi 2</t>
-  </si>
-  <si>
-    <t>Adi 3</t>
-  </si>
-  <si>
-    <t>Wanita</t>
-  </si>
-  <si>
-    <t>Alip</t>
-  </si>
-  <si>
-    <t>Riki</t>
-  </si>
-  <si>
-    <t>Tina</t>
-  </si>
-  <si>
-    <t>Toni</t>
-  </si>
-  <si>
-    <t>Tono</t>
-  </si>
-  <si>
-    <t>Rika</t>
-  </si>
-  <si>
-    <t>Windi</t>
-  </si>
-  <si>
-    <t>Bambang</t>
-  </si>
-  <si>
-    <t>Raka</t>
-  </si>
-  <si>
-    <t>Raditya</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>2023-07-11T10:51:37.000000Z</t>
   </si>
 </sst>
 </file>
@@ -431,258 +385,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F14"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>2115101</v>
+        <v>2116101001</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2116101002</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2116101003</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2116101004</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2116101005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2116101006</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2116101007</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2116101008</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2116101009</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2116101010</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2116101011</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2116101012</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2116101013</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2116101014</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>2115102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2115103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>3.5</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2116101015</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2116101016</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2116101017</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2115104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3.7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>2115105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>3.75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>2115106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3.9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2115107</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>3.7</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>2115108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>2.9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>2115109</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>2.8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2115110</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>3.7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>2115111</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3.7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>2115112</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>3.6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>2115113</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>2115114</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2116101018</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2116101019</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>2116101020</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2116101021</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2116101022</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
